--- a/Project with Excel and Statistics/Project with Excel and Statistics.xlsx
+++ b/Project with Excel and Statistics/Project with Excel and Statistics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/STATISTICS/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F07E79-7174-9147-964B-C559C5C73712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3024B-BF6E-C649-9618-2AD00A366C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats Project" sheetId="1" r:id="rId1"/>
-    <sheet name="All ANSWERS" sheetId="2" r:id="rId2"/>
+    <sheet name="Practical" sheetId="2" r:id="rId2"/>
+    <sheet name="Assess" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="145">
   <si>
     <t>Certification Course</t>
   </si>
@@ -534,12 +535,361 @@
   <si>
     <t>Alternate. Hypothesis</t>
   </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Descriptive and Inferential Statistics? </t>
+  </si>
+  <si>
+    <t>Descriptive</t>
+  </si>
+  <si>
+    <t>Used to sumarize and describe the main features of the dataset</t>
+  </si>
+  <si>
+    <t>E.g (Mean,Median,Mode,Graphs)</t>
+  </si>
+  <si>
+    <t>Inferntial</t>
+  </si>
+  <si>
+    <t>Used to make Conclusion or predictions about a population based on a sample using tools like using Hypothesis Testing and Confidence Interval.</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define the following terms: </t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entire group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you want to study.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: All college students in a country.</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smaller part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the population, used to make conclusions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: 100 students selected from different colleges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define mean, median, and mode. How are they different from each other? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of a data set. Add all values and divide by how many there are.</t>
+    </r>
+  </si>
+  <si>
+    <t>The middle value when the data is sorted.</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The value that occurs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most often</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔹 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Difference:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean is affected by extreme values (outliers), while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>median</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is more stable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is useful when data repeats.</t>
+    </r>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a Random Variable? What are its types? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>random variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a variable whose value depends on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outcome of a random event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Types:</t>
+  </si>
+  <si>
+    <r>
+      <t>Discrete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Takes specific, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>countable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: Number of books you own.</t>
+  </si>
+  <si>
+    <r>
+      <t>Continuous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Takes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any value in a range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (can be decimal).</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: Your height or weight.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,8 +1047,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SymbolMT"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +1283,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -1117,7 +1492,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1130,15 +1505,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1499,9 +1879,9 @@
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +2058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1737,7 +2117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +2176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1914,7 +2294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1973,7 +2353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2032,7 +2412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2091,7 +2471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2209,7 +2589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2445,7 +2825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2504,7 +2884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2563,7 +2943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2622,7 +3002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2681,7 +3061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2740,7 +3120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2799,7 +3179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2858,7 +3238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2917,7 +3297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2976,7 +3356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3094,7 +3474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3153,7 +3533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3271,7 +3651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3330,7 +3710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3389,7 +3769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3448,7 +3828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3507,7 +3887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3566,7 +3946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -3625,7 +4005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +4064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3743,7 +4123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3802,7 +4182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -3861,7 +4241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3920,7 +4300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3979,7 +4359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -4038,7 +4418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4097,7 +4477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -4156,7 +4536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4215,7 +4595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -4274,7 +4654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4333,7 +4713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -4392,7 +4772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -4451,7 +4831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -4510,7 +4890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -4569,7 +4949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -4628,7 +5008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4687,7 +5067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -4746,7 +5126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -4805,7 +5185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -4864,7 +5244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -4923,7 +5303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +5362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -5041,7 +5421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -5100,7 +5480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -5159,7 +5539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19">
       <c r="A63" t="s">
         <v>31</v>
       </c>
@@ -5218,7 +5598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -5277,7 +5657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -5336,7 +5716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -5395,7 +5775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -5454,7 +5834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -5513,7 +5893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -5572,7 +5952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -5631,7 +6011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -5690,7 +6070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
         <v>31</v>
       </c>
@@ -5749,7 +6129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -5808,7 +6188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -5867,7 +6247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -5926,7 +6306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -5985,7 +6365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -6044,7 +6424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -6103,7 +6483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -6162,7 +6542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -6221,7 +6601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19">
       <c r="A81" t="s">
         <v>31</v>
       </c>
@@ -6280,7 +6660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -6398,7 +6778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -6457,7 +6837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -6516,7 +6896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -6575,7 +6955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6634,7 +7014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -6693,7 +7073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19">
       <c r="A89" t="s">
         <v>31</v>
       </c>
@@ -6752,7 +7132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -6811,7 +7191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -6870,7 +7250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19">
       <c r="A92" t="s">
         <v>31</v>
       </c>
@@ -6929,7 +7309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -6988,7 +7368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -7047,7 +7427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -7106,7 +7486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -7165,7 +7545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -7224,7 +7604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -7283,7 +7663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -7342,7 +7722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -7401,7 +7781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -7460,7 +7840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -7519,7 +7899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -7578,7 +7958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19">
       <c r="A104" t="s">
         <v>31</v>
       </c>
@@ -7637,7 +8017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -7696,7 +8076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -7755,7 +8135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -7814,7 +8194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -7873,7 +8253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -7932,7 +8312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -7991,7 +8371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -8050,7 +8430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -8109,7 +8489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19">
       <c r="A113" t="s">
         <v>31</v>
       </c>
@@ -8168,7 +8548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19">
       <c r="A114" t="s">
         <v>31</v>
       </c>
@@ -8227,7 +8607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -8286,7 +8666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -8345,7 +8725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -8404,7 +8784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -8463,7 +8843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -8522,7 +8902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -8581,7 +8961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8640,7 +9020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -8699,7 +9079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8758,7 +9138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -8817,7 +9197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19">
       <c r="A125" t="s">
         <v>31</v>
       </c>
@@ -8876,7 +9256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -8935,7 +9315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -8994,7 +9374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -9053,7 +9433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19">
       <c r="A129" t="s">
         <v>31</v>
       </c>
@@ -9112,7 +9492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -9171,7 +9551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -9230,7 +9610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -9289,7 +9669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -9348,7 +9728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -9407,7 +9787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -9466,7 +9846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -9525,7 +9905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -9584,7 +9964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -9643,7 +10023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -9702,7 +10082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -9761,7 +10141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -9820,7 +10200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -9879,7 +10259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -9938,7 +10318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -9997,7 +10377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -10056,7 +10436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -10115,7 +10495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -10174,7 +10554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -10233,7 +10613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -10292,7 +10672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -10351,7 +10731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -10410,7 +10790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -10469,7 +10849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -10528,7 +10908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -10587,7 +10967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -10646,7 +11026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -10705,7 +11085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -10764,7 +11144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -10823,7 +11203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -10882,7 +11262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -10941,7 +11321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -11000,7 +11380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -11059,7 +11439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -11118,7 +11498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -11177,7 +11557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -11236,7 +11616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -11295,7 +11675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -11354,7 +11734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -11413,7 +11793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -11472,7 +11852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -11531,7 +11911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -11590,7 +11970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -11649,7 +12029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -11708,7 +12088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -11767,7 +12147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -11826,7 +12206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -11885,7 +12265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -11944,7 +12324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -12003,7 +12383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -12062,7 +12442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -12121,7 +12501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -12180,7 +12560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -12239,7 +12619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -12298,7 +12678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -12357,7 +12737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19">
       <c r="A185" t="s">
         <v>31</v>
       </c>
@@ -12416,7 +12796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -12475,7 +12855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19">
       <c r="A187" t="s">
         <v>31</v>
       </c>
@@ -12534,7 +12914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19">
       <c r="A188" t="s">
         <v>31</v>
       </c>
@@ -12593,7 +12973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19">
       <c r="A189" t="s">
         <v>31</v>
       </c>
@@ -12652,7 +13032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -12711,7 +13091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -12770,7 +13150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -12829,7 +13209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -12888,7 +13268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -12947,7 +13327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -13006,7 +13386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -13065,7 +13445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19">
       <c r="A197" t="s">
         <v>31</v>
       </c>
@@ -13124,7 +13504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -13183,7 +13563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19">
       <c r="A199" t="s">
         <v>31</v>
       </c>
@@ -13242,7 +13622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19">
       <c r="A200" t="s">
         <v>31</v>
       </c>
@@ -13301,7 +13681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -13360,7 +13740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -13419,7 +13799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -13478,7 +13858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -13537,7 +13917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -13596,7 +13976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -13655,7 +14035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -13714,7 +14094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -13773,7 +14153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19">
       <c r="A209" t="s">
         <v>31</v>
       </c>
@@ -13832,7 +14212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -13891,7 +14271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19">
       <c r="A211" t="s">
         <v>31</v>
       </c>
@@ -13950,7 +14330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19">
       <c r="A212" t="s">
         <v>31</v>
       </c>
@@ -14009,7 +14389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -14068,7 +14448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19">
       <c r="A214" t="s">
         <v>31</v>
       </c>
@@ -14127,7 +14507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -14186,7 +14566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -14245,7 +14625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -14304,7 +14684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19">
       <c r="A218" t="s">
         <v>31</v>
       </c>
@@ -14363,7 +14743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19">
       <c r="A219" t="s">
         <v>31</v>
       </c>
@@ -14422,7 +14802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19">
       <c r="A220" t="s">
         <v>31</v>
       </c>
@@ -14481,7 +14861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -14540,7 +14920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -14599,7 +14979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19">
       <c r="A223" t="s">
         <v>31</v>
       </c>
@@ -14658,7 +15038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -14717,7 +15097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -14776,7 +15156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19">
       <c r="A226" t="s">
         <v>31</v>
       </c>
@@ -14835,7 +15215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19">
       <c r="A227" t="s">
         <v>31</v>
       </c>
@@ -14894,7 +15274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -14953,7 +15333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19">
       <c r="A229" t="s">
         <v>31</v>
       </c>
@@ -15012,7 +15392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19">
       <c r="A230" t="s">
         <v>31</v>
       </c>
@@ -15071,7 +15451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -15130,7 +15510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19">
       <c r="A232" t="s">
         <v>31</v>
       </c>
@@ -15189,7 +15569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19">
       <c r="A233" t="s">
         <v>31</v>
       </c>
@@ -15248,7 +15628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19">
       <c r="A234" t="s">
         <v>31</v>
       </c>
@@ -15307,7 +15687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19">
       <c r="A235" t="s">
         <v>31</v>
       </c>
@@ -15366,7 +15746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -15434,11 +15814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -15450,7 +15830,7 @@
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
@@ -15462,7 +15842,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
         <v>61</v>
@@ -15497,283 +15877,280 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f>AVERAGE('Stats Project'!$D$2:$D$236)</f>
         <v>157.40212765957446</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f>MEDIAN('Stats Project'!$D$2:$D$236)</f>
         <v>160</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>MODE('Stats Project'!$D$2:$D$236)</f>
         <v>160</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>QUARTILE('Stats Project'!$D$2:$D$236,1)</f>
         <v>152</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>QUARTILE('Stats Project'!$D$2:$D$236,2)</f>
         <v>160</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>QUARTILE('Stats Project'!$D$2:$D$236,3)</f>
         <v>170</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <f>SKEW('Stats Project'!D2:D236)</f>
         <v>-2.5794327896703906</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <f>KURT('Stats Project'!D2:D236)</f>
         <v>12.004227761923811</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="11" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>AVERAGE('Stats Project'!$E$2:$E$236)</f>
         <v>60.803829787234044</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f>MEDIAN('Stats Project'!$E$2:$E$236)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>MODE('Stats Project'!$E$2:$E$236)</f>
         <v>60</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>QUARTILE('Stats Project'!$E$2:$E$236,1)</f>
         <v>50</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>QUARTILE('Stats Project'!$E$2:$E$236,2)</f>
         <v>60</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>QUARTILE('Stats Project'!$E$2:$E$236,3)</f>
         <v>70</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <f>SKEW('Stats Project'!$E$2:$E$236)</f>
         <v>0.24899782060552095</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f>KURT('Stats Project'!$E$2:$E$236)</f>
         <v>-0.35090176835171905</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="11" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f>AVERAGE('Stats Project'!$F$2:$F$236)</f>
         <v>76.848510638297881</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>MEDIAN('Stats Project'!$F$2:$F$236)</f>
         <v>80</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>MODE('Stats Project'!$F$2:$F$236)</f>
         <v>60</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>QUARTILE('Stats Project'!$F$2:$F$236,1)</f>
         <v>70</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>QUARTILE('Stats Project'!$F$2:$F$236,2)</f>
         <v>80</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>QUARTILE('Stats Project'!$F$2:$F$236,3)</f>
         <v>86.25</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <f>SKEW('Stats Project'!$F$2:$F$236)</f>
         <v>-1.1501669731288233</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f>KURT('Stats Project'!$F$2:$F$236)</f>
         <v>2.6412127135255625</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="11" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f>AVERAGE('Stats Project'!$G$2:$G$236)</f>
         <v>68.775872340425522</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f>MEDIAN('Stats Project'!$G$2:$G$236)</f>
         <v>69</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>MODE('Stats Project'!$G$2:$G$236)</f>
         <v>70</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f>QUARTILE('Stats Project'!$G$2:$G$236,1)</f>
         <v>60</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f>QUARTILE('Stats Project'!$G$2:$G$236,2)</f>
         <v>69</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>QUARTILE('Stats Project'!$G$2:$G$236,3)</f>
         <v>76</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <f>SKEW('Stats Project'!$G$2:$G$236)</f>
         <v>6.9232421740388711E-2</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <f>KURT('Stats Project'!$G$2:$G$236)</f>
         <v>-0.63959972017130706</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F13" s="13"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="C18" s="4"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f>_xlfn.COVARIANCE.S(E19:E38,F19:F38)</f>
         <v>97.526315789473685</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="E19" s="5">
         <v>45</v>
       </c>
       <c r="F19" s="5">
         <v>52</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <f>CORREL(E19:E38,F19:F38)</f>
         <v>0.99859572699637911</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="E20" s="5">
         <v>47</v>
       </c>
       <c r="F20" s="5">
         <v>54</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="E21" s="5">
         <v>48</v>
       </c>
       <c r="F21" s="5">
         <v>55</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -15784,7 +16161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="E23" s="5">
         <v>52</v>
       </c>
@@ -15792,7 +16169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="E24" s="5">
         <v>53</v>
       </c>
@@ -15800,7 +16177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="E25" s="5">
         <v>55</v>
       </c>
@@ -15808,7 +16185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="E26" s="5">
         <v>56</v>
       </c>
@@ -15816,7 +16193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="E27" s="5">
         <v>58</v>
       </c>
@@ -15824,7 +16201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="E28" s="5">
         <v>60</v>
       </c>
@@ -15832,7 +16209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="E29" s="5">
         <v>62</v>
       </c>
@@ -15840,7 +16217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="E30" s="5">
         <v>64</v>
       </c>
@@ -15848,7 +16225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="E31" s="5">
         <v>65</v>
       </c>
@@ -15856,7 +16233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="E32" s="5">
         <v>67</v>
       </c>
@@ -15864,7 +16241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="E33" s="5">
         <v>69</v>
       </c>
@@ -15872,7 +16249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="E34" s="5">
         <v>70</v>
       </c>
@@ -15880,7 +16257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="E35" s="5">
         <v>72</v>
       </c>
@@ -15888,7 +16265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="E36" s="5">
         <v>74</v>
       </c>
@@ -15896,7 +16273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="E37" s="5">
         <v>76</v>
       </c>
@@ -15904,7 +16281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="E38" s="5">
         <v>77</v>
       </c>
@@ -15912,7 +16289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="E43" s="5" t="s">
         <v>85</v>
       </c>
@@ -15928,24 +16305,24 @@
       <c r="K43" s="3">
         <v>3</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="15" t="s">
         <v>99</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P43" s="16" t="s">
+      <c r="P43" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-    </row>
-    <row r="44" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+    </row>
+    <row r="44" spans="1:22" ht="17" thickBot="1">
       <c r="E44" s="6">
         <v>85</v>
       </c>
@@ -15962,7 +16339,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="E45" s="5">
         <v>88</v>
       </c>
@@ -15980,7 +16357,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="3" t="s">
         <v>106</v>
       </c>
@@ -15999,24 +16376,24 @@
       <c r="J46">
         <v>78.2</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17" t="s">
+      <c r="M46" s="15"/>
+      <c r="N46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="P46" s="16" t="s">
+      <c r="P46" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="E47" s="5">
         <v>87</v>
       </c>
@@ -16042,7 +16419,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="E48" s="5">
         <v>90</v>
       </c>
@@ -16059,7 +16436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21">
       <c r="H49" t="s">
         <v>91</v>
       </c>
@@ -16067,7 +16444,7 @@
         <v>-0.65917665741939169</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21">
       <c r="H50" t="s">
         <v>92</v>
       </c>
@@ -16077,26 +16454,26 @@
       <c r="K50" s="3">
         <v>4</v>
       </c>
-      <c r="L50" s="15" t="s">
+      <c r="L50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="16" t="s">
+      <c r="M50" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+    </row>
+    <row r="51" spans="3:21">
       <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="13" t="s">
         <v>110</v>
       </c>
       <c r="H51" t="s">
@@ -16106,8 +16483,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D52" s="18" t="s">
+    <row r="52" spans="3:21">
+      <c r="D52" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E52" t="s">
@@ -16120,8 +16497,8 @@
         <v>4.4990271321905535</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D53" s="18" t="s">
+    <row r="53" spans="3:21">
+      <c r="D53" s="16" t="s">
         <v>113</v>
       </c>
       <c r="E53" t="s">
@@ -16134,7 +16511,7 @@
         <v>5.4153084498616772E-3</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:21">
       <c r="H54" t="s">
         <v>96</v>
       </c>
@@ -16142,7 +16519,7 @@
         <v>2.1318467863266499</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21">
       <c r="H55" t="s">
         <v>97</v>
       </c>
@@ -16153,7 +16530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="3:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:21" ht="17" thickBot="1">
       <c r="H56" s="7" t="s">
         <v>98</v>
       </c>
@@ -16161,6 +16538,188 @@
         <v>2.7764451051977934</v>
       </c>
       <c r="J56" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA723EA7-2A55-BE44-8DC7-390B7B22FFF1}">
+  <dimension ref="A2:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
